--- a/data/trans_dic/P19C02-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19C02-Habitat-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.2926816585532216</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.4602190265748688</v>
+        <v>0.4602190265748686</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1791634842217299</v>
+        <v>0.1781142589340862</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1904340320424847</v>
+        <v>0.1864128705436258</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2411341511102393</v>
+        <v>0.2435440488139201</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3868671605149615</v>
+        <v>0.3890676345007128</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1897413219969199</v>
+        <v>0.1908414231038077</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2552990064919402</v>
+        <v>0.2495016558344729</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2639376868711896</v>
+        <v>0.2666222760930397</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4536450550547044</v>
+        <v>0.456943566573441</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1938363688048035</v>
+        <v>0.1951859905527965</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.230467741120804</v>
+        <v>0.2277222439709585</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2663062102227378</v>
+        <v>0.2642694208983379</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.434219377375373</v>
+        <v>0.4347597595949762</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2603852159118449</v>
+        <v>0.2564798832881087</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.255448830150978</v>
+        <v>0.2547639334377723</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3176589235848912</v>
+        <v>0.3223693267531417</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.471314056941303</v>
+        <v>0.4716275876362972</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2611019230976591</v>
+        <v>0.2612013323855692</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3222475646703962</v>
+        <v>0.3235605587009909</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3449201216431146</v>
+        <v>0.3457213510119193</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5201983410646319</v>
+        <v>0.5226447273888593</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2451517270124163</v>
+        <v>0.2479634265710619</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2813361617340282</v>
+        <v>0.2822547328084283</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3210656964963361</v>
+        <v>0.318839253601479</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4871041906553189</v>
+        <v>0.4828398354266619</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.3809870433207167</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.520455953331045</v>
+        <v>0.5204559533310448</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.2773403138362446</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.233930225230372</v>
+        <v>0.2312274958868175</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2705240076167589</v>
+        <v>0.2695579943185251</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3374717694393846</v>
+        <v>0.3375298180199404</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.477084249850841</v>
+        <v>0.4750594382727182</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2547533137166716</v>
+        <v>0.2537336958512976</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2370534497339734</v>
+        <v>0.2351445427086184</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3468901075320173</v>
+        <v>0.3485333140276223</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.4920757119904373</v>
+        <v>0.4918691812450011</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2517597590944524</v>
+        <v>0.2554944304226369</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2603067435859386</v>
+        <v>0.2618795133989695</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.352096825595645</v>
+        <v>0.3524191238846978</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.49270424542174</v>
+        <v>0.4930255887831409</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3044436037592613</v>
+        <v>0.3055076430430539</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3339641180978847</v>
+        <v>0.3335387802907966</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4054266946744215</v>
+        <v>0.4067427425112325</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5469713667211344</v>
+        <v>0.5467461158751886</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3195517547907791</v>
+        <v>0.3189517353008643</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2996895845080523</v>
+        <v>0.2935561794750115</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4155504282314695</v>
+        <v>0.416601404552793</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.5484695177683676</v>
+        <v>0.5487398761477371</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3006557612971724</v>
+        <v>0.3014930621282907</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3043919185876233</v>
+        <v>0.3054653832341833</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4004669863135112</v>
+        <v>0.4016450718831193</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.5383437128757338</v>
+        <v>0.5383603972822879</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.3694117339064767</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.4311144714556658</v>
+        <v>0.4311144714556657</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2649774196798915</v>
+        <v>0.2609089022135169</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2487952327945472</v>
+        <v>0.2491109650358026</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.294505213337992</v>
+        <v>0.289675595155984</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3953147547929168</v>
+        <v>0.394827279362173</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.297021920404398</v>
+        <v>0.2981557049669328</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3007895177145247</v>
+        <v>0.3030006893399309</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3614100232249094</v>
+        <v>0.3633651961246882</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3951882018848217</v>
+        <v>0.3942917033662395</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2930753729503794</v>
+        <v>0.292333069221654</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2860797656000683</v>
+        <v>0.2875959682246466</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.3399529698914635</v>
+        <v>0.343021770247168</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.4076333047174631</v>
+        <v>0.404546532269299</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3476591339028047</v>
+        <v>0.3439367143547437</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3230674845067187</v>
+        <v>0.3270957792011449</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3729909854778119</v>
+        <v>0.3742962074815076</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.47917512978982</v>
+        <v>0.4826310062930151</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3769734556207761</v>
+        <v>0.3737262492215703</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3779319422768633</v>
+        <v>0.3803959756970736</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4425831154560556</v>
+        <v>0.4461644000488257</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.462152684676481</v>
+        <v>0.4624700840704008</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3451873903758907</v>
+        <v>0.3471820752916955</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3425897480319713</v>
+        <v>0.3416891431450015</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3999617535220499</v>
+        <v>0.4031266140961219</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.4556450832097981</v>
+        <v>0.4567448028476887</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.3799061817354106</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.488539346111752</v>
+        <v>0.4885393461117521</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.3099367263201382</v>
@@ -1093,7 +1093,7 @@
         <v>0.3853150508334734</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.4951777052318908</v>
+        <v>0.4951777052318907</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.3233664025633383</v>
@@ -1105,7 +1105,7 @@
         <v>0.3827814704468054</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.4920687665597413</v>
+        <v>0.4920687665597412</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3050494814905018</v>
+        <v>0.3045610025505077</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3258554668180834</v>
+        <v>0.3241743299317292</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.348411558596715</v>
+        <v>0.3486400078646519</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4542842137084068</v>
+        <v>0.4547875471858413</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2770428763124099</v>
+        <v>0.279269723970483</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3219371792135868</v>
+        <v>0.3247197393930822</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3542376606605372</v>
+        <v>0.3527085664762472</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.4667361716885869</v>
+        <v>0.4678845141867443</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2986476340951457</v>
+        <v>0.2980664845409481</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.3338446579896697</v>
+        <v>0.3337020246574193</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3619542451549208</v>
+        <v>0.3594991216416036</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.4708189407217296</v>
+        <v>0.47052382081246</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3718813995755601</v>
+        <v>0.3711640899831998</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3948012921987597</v>
+        <v>0.3915399027048199</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4136332506169572</v>
+        <v>0.4162739166661522</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5217428333950894</v>
+        <v>0.5223159656041902</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3461684682354835</v>
+        <v>0.3469712605110656</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3876581431354491</v>
+        <v>0.3880561328984851</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4208090672498491</v>
+        <v>0.4213311235824735</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.5192547757361097</v>
+        <v>0.5243051646943697</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3458358249463403</v>
+        <v>0.346884447480288</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3774587274202299</v>
+        <v>0.3829499744650814</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.407240381318611</v>
+        <v>0.4072685052836765</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.5138875592928647</v>
+        <v>0.5139983747993774</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.3484740703217505</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.4715726327480701</v>
+        <v>0.47157263274807</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.2910457493136153</v>
@@ -1229,7 +1229,7 @@
         <v>0.37187151373609</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.4864402435980973</v>
+        <v>0.4864402435980972</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.2887349793938603</v>
@@ -1241,7 +1241,7 @@
         <v>0.3606020723469251</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.4792474951632352</v>
+        <v>0.4792474951632351</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2677525109718834</v>
+        <v>0.2661250448433759</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2798144152817445</v>
+        <v>0.2783713029326867</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3301625166294197</v>
+        <v>0.3316356184361788</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.4510162393338584</v>
+        <v>0.4521513841531291</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2746177180439938</v>
+        <v>0.2739993273582496</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2953121400022042</v>
+        <v>0.2953803912842574</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3540638477755765</v>
+        <v>0.3532576810720362</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.4720364379870138</v>
+        <v>0.4704223073461752</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2751616476731209</v>
+        <v>0.2765391479678251</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2933573524743565</v>
+        <v>0.2924374082411958</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.348345396714963</v>
+        <v>0.3469013331659558</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.4680045221935678</v>
+        <v>0.4670705891539168</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3047898823876637</v>
+        <v>0.3045224584705804</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3134524769298308</v>
+        <v>0.3133075343370686</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3686921277813537</v>
+        <v>0.3683103137927002</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4893591295586825</v>
+        <v>0.4912570417859246</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3077489944745603</v>
+        <v>0.3078592766871914</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3287272208725144</v>
+        <v>0.32791853023361</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3907604812116258</v>
+        <v>0.389401699298678</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5008690912610059</v>
+        <v>0.5004800340746792</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3011198085807689</v>
+        <v>0.3014732337399176</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.317180932219856</v>
+        <v>0.3163231355211248</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3744766992365898</v>
+        <v>0.37336181333963</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.4920387784287189</v>
+        <v>0.4909618351721852</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>85611</v>
+        <v>85110</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>115194</v>
+        <v>112762</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>126594</v>
+        <v>127859</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>255151</v>
+        <v>256602</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>101908</v>
+        <v>102498</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>162559</v>
+        <v>158868</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>143678</v>
+        <v>145139</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>320341</v>
+        <v>322670</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>196729</v>
+        <v>198099</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>286159</v>
+        <v>282750</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>284776</v>
+        <v>282598</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>593005</v>
+        <v>593743</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>124422</v>
+        <v>122556</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>154522</v>
+        <v>154107</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>166769</v>
+        <v>169242</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>310846</v>
+        <v>311053</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>140234</v>
+        <v>140288</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>205188</v>
+        <v>206024</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>187762</v>
+        <v>188198</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>367338</v>
+        <v>369065</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>248810</v>
+        <v>251664</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>349319</v>
+        <v>350460</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>343334</v>
+        <v>340953</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>665228</v>
+        <v>659405</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>168928</v>
+        <v>166976</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>234270</v>
+        <v>233433</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>275494</v>
+        <v>275541</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>484817</v>
+        <v>482760</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>204879</v>
+        <v>204059</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>213316</v>
+        <v>211598</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>300536</v>
+        <v>301960</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>515589</v>
+        <v>515373</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>384275</v>
+        <v>389975</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>459663</v>
+        <v>462440</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>592480</v>
+        <v>593022</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1016938</v>
+        <v>1017601</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>219847</v>
+        <v>220616</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>289208</v>
+        <v>288840</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>330968</v>
+        <v>332043</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>555837</v>
+        <v>555608</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>256992</v>
+        <v>256509</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>269680</v>
+        <v>264161</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>360022</v>
+        <v>360932</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>574678</v>
+        <v>574961</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>458907</v>
+        <v>460185</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>537510</v>
+        <v>539406</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>673873</v>
+        <v>675856</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>1111138</v>
+        <v>1111172</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>144436</v>
+        <v>142219</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>158242</v>
+        <v>158443</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>162084</v>
+        <v>159426</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>305977</v>
+        <v>305599</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>173350</v>
+        <v>174012</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>204085</v>
+        <v>205585</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>209523</v>
+        <v>210657</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>314311</v>
+        <v>313598</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>330799</v>
+        <v>329961</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>376060</v>
+        <v>378053</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>384180</v>
+        <v>387648</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>639721</v>
+        <v>634876</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>189505</v>
+        <v>187476</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>205482</v>
+        <v>208044</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>205279</v>
+        <v>205998</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>370885</v>
+        <v>373560</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>220012</v>
+        <v>218117</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>256426</v>
+        <v>258098</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>256582</v>
+        <v>258658</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>367571</v>
+        <v>367823</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>389619</v>
+        <v>391870</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>450344</v>
+        <v>449160</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>451996</v>
+        <v>455573</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>715068</v>
+        <v>716794</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>216490</v>
+        <v>216143</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>262211</v>
+        <v>260858</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>269195</v>
+        <v>269371</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>430643</v>
+        <v>431120</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>225254</v>
+        <v>227065</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>300432</v>
+        <v>303029</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>310610</v>
+        <v>309269</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>502287</v>
+        <v>503523</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>454767</v>
+        <v>453882</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>580184</v>
+        <v>579936</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>597035</v>
+        <v>592985</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>952998</v>
+        <v>952401</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>263920</v>
+        <v>263411</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>317690</v>
+        <v>315066</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>319588</v>
+        <v>321628</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>494591</v>
+        <v>495134</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>281458</v>
+        <v>282111</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>361763</v>
+        <v>362134</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>368983</v>
+        <v>369440</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>558806</v>
+        <v>564241</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>526623</v>
+        <v>528220</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>655980</v>
+        <v>665523</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>671733</v>
+        <v>671780</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1040175</v>
+        <v>1040399</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>657263</v>
+        <v>653268</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>814709</v>
+        <v>810508</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>879663</v>
+        <v>883588</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1532421</v>
+        <v>1536278</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>751906</v>
+        <v>750213</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>929732</v>
+        <v>929947</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1015213</v>
+        <v>1012901</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1711344</v>
+        <v>1705492</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1428846</v>
+        <v>1435999</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1777719</v>
+        <v>1772144</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1926924</v>
+        <v>1918936</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>3286868</v>
+        <v>3280309</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>748181</v>
+        <v>747524</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>912650</v>
+        <v>912228</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>982319</v>
+        <v>981301</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>1662699</v>
+        <v>1669147</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>842620</v>
+        <v>842921</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1034933</v>
+        <v>1032387</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1120433</v>
+        <v>1116537</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1815875</v>
+        <v>1814464</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1563640</v>
+        <v>1565475</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1922087</v>
+        <v>1916889</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>2071473</v>
+        <v>2065306</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>3455665</v>
+        <v>3448101</v>
       </c>
     </row>
     <row r="24">
